--- a/ASX_Returns_by_asset_class.xlsx
+++ b/ASX_Returns_by_asset_class.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,13 +402,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -419,13 +419,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C2">
+        <v>9.6</v>
+      </c>
+      <c r="D2">
         <v>9.4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7.1</v>
-      </c>
-      <c r="E2">
-        <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -439,10 +439,10 @@
         <v>5.4</v>
       </c>
       <c r="D3">
+        <v>5.4</v>
+      </c>
+      <c r="E3">
         <v>4.2</v>
-      </c>
-      <c r="E3">
-        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -456,10 +456,10 @@
         <v>1.7</v>
       </c>
       <c r="D4">
+        <v>1.7</v>
+      </c>
+      <c r="E4">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -470,13 +470,13 @@
         <v>6.2</v>
       </c>
       <c r="C5">
+        <v>5.3</v>
+      </c>
+      <c r="D5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3.3</v>
-      </c>
-      <c r="E5">
-        <v>5.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,13 +487,13 @@
         <v>7.5</v>
       </c>
       <c r="C6">
+        <v>6.3</v>
+      </c>
+      <c r="D6">
         <v>6.2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.9</v>
-      </c>
-      <c r="E6">
-        <v>6.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,13 +504,13 @@
         <v>3.7</v>
       </c>
       <c r="C7">
+        <v>3.1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.9</v>
-      </c>
-      <c r="E7">
-        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,13 +521,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C8">
+        <v>7.3</v>
+      </c>
+      <c r="D8">
         <v>7.2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5.8</v>
-      </c>
-      <c r="E8">
-        <v>7.3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,10 +541,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9">
         <v>3.2</v>
-      </c>
-      <c r="E9">
-        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,13 +555,13 @@
         <v>6.4</v>
       </c>
       <c r="C10">
+        <v>5.6</v>
+      </c>
+      <c r="D10">
         <v>5.5</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="E10">
-        <v>5.6</v>
       </c>
     </row>
   </sheetData>
